--- a/silver-rain/checklist.xlsx
+++ b/silver-rain/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/silver-rain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF6310D6-CFD6-3C4F-8DE6-16DD293D4AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE2E0D1F-6CB0-A245-8A46-A0648CC44B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{3579F3EB-692A-1F40-A108-9E19E2014841}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>Silver Rain RPG Supplement Oni Front</t>
   </si>
   <si>
-    <t>Silver Rain RPG Supplement Mysterious story</t>
-  </si>
-  <si>
     <t>白き女王の夜</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>The Messenger of the Blue Mirror</t>
+  </si>
+  <si>
+    <t>Silver Rain RPG Supplement Mysterious Story</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:F11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -583,19 +583,19 @@
         <v>2008</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -603,19 +603,19 @@
         <v>2008</v>
       </c>
       <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -663,19 +663,19 @@
         <v>2009</v>
       </c>
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -683,19 +683,19 @@
         <v>2009</v>
       </c>
       <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -706,7 +706,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
